--- a/underthesea/feature_engineering/character_rules.xlsx
+++ b/underthesea/feature_engineering/character_rules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">non_standard</t>
   </si>
@@ -38,6 +38,15 @@
   </si>
   <si>
     <t xml:space="preserve">0xF0 → 0x111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ð</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0xD0 → 0x110</t>
   </si>
 </sst>
 </file>
@@ -47,7 +56,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -76,6 +85,12 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,7 +142,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -137,6 +152,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -157,13 +176,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
@@ -188,6 +207,17 @@
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/underthesea/feature_engineering/character_rules.xlsx
+++ b/underthesea/feature_engineering/character_rules.xlsx
@@ -56,7 +56,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -85,12 +85,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,7 +136,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -152,10 +146,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -179,10 +169,10 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
@@ -210,10 +200,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
